--- a/data/trans_bre/Q45B_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 13,99</t>
+          <t>5,74; 14,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 15,66</t>
+          <t>6,28; 15,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,14</t>
+          <t>1,53; 5,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>100,71; 583,5</t>
+          <t>107,01; 612,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>116,74; 649,97</t>
+          <t>105,81; 673,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,94; 1412,76</t>
+          <t>66,13; 1902,25</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,81; 22,43</t>
+          <t>13,79; 21,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,27; 16,47</t>
+          <t>8,06; 16,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,07</t>
+          <t>1,83; 6,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>653,58; 7332,03</t>
+          <t>725,51; 7954,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>208,67; 1032,39</t>
+          <t>192,79; 1122,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,94; —</t>
+          <t>58,03; —</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 14,6</t>
+          <t>4,8; 14,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,24; 12,27</t>
+          <t>4,02; 12,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 10,1</t>
+          <t>2,41; 9,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>137,51; 975,02</t>
+          <t>159,73; 1004,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>114,75; 648,98</t>
+          <t>98,14; 618,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>148,91; 3764,77</t>
+          <t>116,61; 3379,64</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 8,83</t>
+          <t>4,53; 8,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,92</t>
+          <t>3,52; 8,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,95</t>
+          <t>3,37; 6,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>179,17; 712,36</t>
+          <t>191,18; 699,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,09; 409,05</t>
+          <t>104,75; 414,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>234,39; 1287,15</t>
+          <t>234,68; 1267,87</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,9</t>
+          <t>0,28; 5,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,03</t>
+          <t>0,73; 3,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,54</t>
+          <t>-0,28; 2,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 443,66</t>
+          <t>-2,22; 514,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,63; 660,3</t>
+          <t>19,7; 745,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-22,73; 381,65</t>
+          <t>-22,96; 345,77</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,92; 4,21</t>
+          <t>0,76; 4,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 4,18</t>
+          <t>-0,27; 4,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 1,85</t>
+          <t>-1,24; 1,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,43; 1181,32</t>
+          <t>18,37; 1094,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 474,38</t>
+          <t>-17,09; 452,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,53; 641,5</t>
+          <t>-54,94; 534,88</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,81; 6,88</t>
+          <t>4,71; 6,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,97</t>
+          <t>3,97; 5,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,29</t>
+          <t>1,89; 3,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>199,86; 417,01</t>
+          <t>200,46; 434,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>130,91; 286,45</t>
+          <t>140,44; 295,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>160,77; 459,08</t>
+          <t>162,36; 477,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/Q45B_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/Q45B_R-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
